--- a/Adsız 1.xlsx
+++ b/Adsız 1.xlsx
@@ -5,22 +5,24 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Sponsor" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Veli" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Takım" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="fikstür" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="oyun(maç canlı)" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Oyun yeri(maç yeri)" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Oyuncu kartı" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Gözlemci" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Hakem" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="ligler" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Sayfa1" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Puan Durumu" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Antranör(Hoca)" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="socket" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sponsor" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Veli" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="ligler" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="fikstür" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Takım" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="oyun(maç canlı)" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Oyun yeri(maç yeri)" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Oyuncu kartı" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Gözlemci" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="admin" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Hakem" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Sayfa1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Puan Durumu" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Antranör(Hoca)" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="142">
   <si>
     <t xml:space="preserve">ıd</t>
   </si>
@@ -67,6 +69,213 @@
     <t xml:space="preserve">doviz,tl </t>
   </si>
   <si>
+    <t xml:space="preserve">eposta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sifre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soyadı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">telefon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oyuncu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sezon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">başlangıç tarihi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitiş tarihi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maç tarihi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ev sahibi takım</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deplasman takım</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oyun yeri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuruluş Tarihi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telefon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stadyum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyuncular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T.direktor/Hoca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">konum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sorumlu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sorumlu iletişim</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">maç saati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">il</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">takım1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">takım2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gözlemci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orta hakem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yan hakem1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yan hakem2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dördüncü hakem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takım</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorumlu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimlik no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dogum yeri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doğum Tarihi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kilo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pozisyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takımı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forma No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oynadığı Maç Sayısı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attığı Gol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Önceki Takımı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarı Kart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kırmızı Kart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adı </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soyadı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Görev yaptığı oyun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gösterdiği Sarı Kart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gösterdiği Kırmızı Kart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maç Sayısı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Görevli Olduğu Maç</t>
+  </si>
+  <si>
     <t xml:space="preserve">1)</t>
   </si>
   <si>
@@ -245,6 +454,12 @@
   </si>
   <si>
     <t xml:space="preserve">kullanıcı favori takım secip o takımla ilgili bildirim alabilir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adı Soyadı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doğum Yeri</t>
   </si>
 </sst>
 </file>
@@ -344,71 +559,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="66.75"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Sayfa &amp;P</oddFooter>
@@ -417,6 +578,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Sayfa &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -439,286 +623,88 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B30"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="88.94"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Sayfa &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.18"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -734,14 +720,350 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="88.94"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Sayfa &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Sayfa &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -757,17 +1079,81 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="66.75"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Sayfa &amp;P</oddFooter>
@@ -780,14 +1166,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -803,14 +1225,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A7:A8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -826,14 +1259,63 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.37"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -849,14 +1331,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.23"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -872,14 +1441,75 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -895,14 +1525,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -918,14 +1584,138 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.56"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Adsız 1.xlsx
+++ b/Adsız 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="socket" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,9 +20,10 @@
     <sheet name="Gözlemci" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="admin" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="Hakem" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Sayfa1" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Puan Durumu" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Antranör(Hoca)" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="İl temsilcisi" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Sayfa1" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Puan Durumu" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="Antranör(Hoca)" sheetId="16" state="visible" r:id="rId17"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="158">
   <si>
     <t xml:space="preserve">ıd</t>
   </si>
@@ -90,6 +91,12 @@
     <t xml:space="preserve">oyuncu</t>
   </si>
   <si>
+    <t xml:space="preserve">adres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uyruk</t>
+  </si>
+  <si>
     <t xml:space="preserve">adı</t>
   </si>
   <si>
@@ -186,6 +193,24 @@
     <t xml:space="preserve">dördüncü hakem</t>
   </si>
   <si>
+    <t xml:space="preserve">yorum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sarı kart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kırmızı kart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uzatma süresi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oyuncu değişikliği</t>
+  </si>
+  <si>
     <t xml:space="preserve">Konum</t>
   </si>
   <si>
@@ -252,18 +277,12 @@
     <t xml:space="preserve">veli</t>
   </si>
   <si>
-    <t xml:space="preserve">adres</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adı </t>
   </si>
   <si>
     <t xml:space="preserve">Soyadı</t>
   </si>
   <si>
-    <t xml:space="preserve">Görev yaptığı oyun</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gösterdiği Sarı Kart</t>
   </si>
   <si>
@@ -454,6 +473,36 @@
   </si>
   <si>
     <t xml:space="preserve">kullanıcı favori takım secip o takımla ilgili bildirim alabilir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liğ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">takım</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oynanan maç</t>
+  </si>
+  <si>
+    <t xml:space="preserve">galibiyet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mağlubiyet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beraberlik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attığı gol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yediği gol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avaraj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">puan</t>
   </si>
   <si>
     <t xml:space="preserve">Adı Soyadı</t>
@@ -565,7 +614,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -588,7 +637,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -611,7 +660,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -628,79 +677,74 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -720,258 +764,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="88.94"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -987,14 +787,258 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="88.94"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1010,42 +1054,121 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Sayfa &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1055,7 +1178,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,7 +1208,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="66.75"/>
@@ -1166,13 +1289,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1207,6 +1330,16 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1231,7 +1364,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -1240,7 +1373,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1262,10 +1395,10 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.37"/>
   </cols>
@@ -1277,42 +1410,42 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1337,7 +1470,7 @@
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.23"/>
   </cols>
@@ -1354,65 +1487,65 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,13 +1574,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1456,57 +1592,87 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1531,7 +1697,10 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.23"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1545,27 +1714,27 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1584,25 +1753,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1612,87 +1781,87 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1702,7 +1871,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1713,6 +1882,11 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
